--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_054.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_054.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="123">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -44,12 +47,21 @@
     <t/>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+  </si>
+  <si>
     <t>Constatazione di avvenuto parto</t>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+  </si>
+  <si>
     <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -92,6 +104,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -336,6 +351,9 @@
   </si>
   <si>
     <t>195,196</t>
+  </si>
+  <si>
+    <t>{evento.ausilioInterprete,=,false}</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -421,7 +439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -433,6 +451,7 @@
     <col min="4" max="4" width="22.15625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="41.19140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -454,225 +473,261 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -694,1445 +749,1664 @@
       <c r="F13" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G13" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E16" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>107</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>107</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>107</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>107</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>107</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>107</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>107</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>107</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>107</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_054.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_054.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="121">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>
@@ -54,12 +54,6 @@
   </si>
   <si>
     <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
-  </si>
-  <si>
-    <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
   </si>
   <si>
     <t>Formula</t>
@@ -439,14 +433,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H85"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="15.75390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="49.48828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="41.8984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="22.15625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
@@ -525,13 +519,13 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
@@ -543,18 +537,18 @@
         <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -571,13 +565,13 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
@@ -594,10 +588,10 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
@@ -617,10 +611,10 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
@@ -640,10 +634,10 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
@@ -663,10 +657,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
@@ -686,108 +680,108 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>6</v>
+      <c r="C13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>32</v>
@@ -796,21 +790,21 @@
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>34</v>
@@ -819,44 +813,44 @@
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>40</v>
@@ -865,44 +859,44 @@
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>45</v>
@@ -911,21 +905,21 @@
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>47</v>
@@ -934,21 +928,21 @@
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>49</v>
@@ -957,21 +951,21 @@
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>51</v>
@@ -980,21 +974,21 @@
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>53</v>
@@ -1003,21 +997,21 @@
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>55</v>
@@ -1026,12 +1020,12 @@
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>56</v>
@@ -1040,7 +1034,7 @@
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>57</v>
@@ -1049,12 +1043,12 @@
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>58</v>
@@ -1063,7 +1057,7 @@
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>59</v>
@@ -1072,12 +1066,12 @@
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>60</v>
@@ -1086,7 +1080,7 @@
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>61</v>
@@ -1095,21 +1089,21 @@
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>63</v>
@@ -1118,21 +1112,21 @@
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>65</v>
@@ -1141,21 +1135,21 @@
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>67</v>
@@ -1164,21 +1158,21 @@
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>69</v>
@@ -1187,21 +1181,21 @@
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>71</v>
@@ -1210,12 +1204,12 @@
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>72</v>
@@ -1224,7 +1218,7 @@
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>73</v>
@@ -1233,12 +1227,12 @@
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>74</v>
@@ -1247,7 +1241,7 @@
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>75</v>
@@ -1256,12 +1250,12 @@
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>76</v>
@@ -1270,7 +1264,7 @@
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>77</v>
@@ -1279,12 +1273,12 @@
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>78</v>
@@ -1293,7 +1287,7 @@
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>79</v>
@@ -1302,21 +1296,21 @@
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>81</v>
@@ -1325,21 +1319,21 @@
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>83</v>
@@ -1348,21 +1342,21 @@
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>85</v>
@@ -1371,67 +1365,67 @@
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="C42" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>45</v>
@@ -1440,44 +1434,44 @@
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C44" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>95</v>
@@ -1486,44 +1480,44 @@
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>49</v>
@@ -1532,44 +1526,44 @@
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>99</v>
@@ -1578,44 +1572,44 @@
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>53</v>
@@ -1624,21 +1618,21 @@
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>55</v>
@@ -1647,21 +1641,21 @@
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>57</v>
@@ -1670,21 +1664,21 @@
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>59</v>
@@ -1693,12 +1687,12 @@
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>60</v>
@@ -1707,7 +1701,7 @@
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>61</v>
@@ -1716,15 +1710,15 @@
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
@@ -1733,18 +1727,18 @@
         <v>92</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>104</v>
@@ -1753,7 +1747,7 @@
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>105</v>
@@ -1762,12 +1756,12 @@
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>106</v>
@@ -1776,7 +1770,7 @@
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>107</v>
@@ -1785,67 +1779,67 @@
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>30</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>47</v>
@@ -1854,21 +1848,21 @@
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>49</v>
@@ -1877,21 +1871,21 @@
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>51</v>
@@ -1900,21 +1894,21 @@
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>53</v>
@@ -1923,21 +1917,21 @@
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>55</v>
@@ -1946,12 +1940,12 @@
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>56</v>
@@ -1960,21 +1954,21 @@
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>57</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>58</v>
@@ -1983,21 +1977,21 @@
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>60</v>
@@ -2006,53 +2000,53 @@
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>65</v>
@@ -2061,21 +2055,21 @@
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>67</v>
@@ -2084,21 +2078,21 @@
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>69</v>
@@ -2107,21 +2101,21 @@
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>71</v>
@@ -2130,12 +2124,12 @@
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>72</v>
@@ -2144,21 +2138,21 @@
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>73</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>74</v>
@@ -2167,21 +2161,21 @@
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>75</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>76</v>
@@ -2190,21 +2184,21 @@
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>78</v>
@@ -2213,53 +2207,53 @@
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>79</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>81</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>83</v>
@@ -2268,21 +2262,21 @@
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>85</v>
@@ -2291,90 +2285,90 @@
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>113</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>116</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>118</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>120</v>
@@ -2383,30 +2377,7 @@
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_054.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_054.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="122">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,58 +32,61 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Attestazione di nascita</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+  </si>
+  <si>
+    <t>Constatazione di avvenuto parto</t>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Attestazione di nascita</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
-  </si>
-  <si>
-    <t>Constatazione di avvenuto parto</t>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -721,1663 +724,1663 @@
         <v>5</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_054.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_054.xlsx
@@ -47,13 +47,13 @@
     <t/>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,1</t>
   </si>
   <si>
     <t>Constatazione di avvenuto parto</t>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,2</t>
   </si>
   <si>
     <t>Formula</t>
@@ -350,7 +350,7 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>{evento.ausilioInterprete,=,false}</t>
+    <t>evento.ausilioInterprete,=,false</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -448,7 +448,7 @@
     <col min="4" max="4" width="22.15625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="41.19140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="39.80859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_054.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_054.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="124">
   <si>
     <t>Sezione</t>
   </si>
@@ -201,6 +201,12 @@
   </si>
   <si>
     <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
   </si>
   <si>
     <t>Nazionalita</t>
@@ -436,7 +442,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H84"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1103,7 +1109,7 @@
         <v>63</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>43</v>
@@ -1195,7 +1201,7 @@
         <v>71</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>43</v>
@@ -1310,7 +1316,7 @@
         <v>81</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>43</v>
@@ -1382,10 +1388,10 @@
         <v>16</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1396,19 +1402,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1419,19 +1425,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1442,19 +1448,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>93</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1465,16 +1471,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>96</v>
@@ -1488,19 +1494,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1511,19 +1517,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1534,10 +1540,10 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>16</v>
@@ -1546,7 +1552,7 @@
         <v>93</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1557,7 +1563,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>99</v>
@@ -1566,7 +1572,7 @@
         <v>16</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>100</v>
@@ -1580,19 +1586,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1603,19 +1609,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1626,19 +1632,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1649,19 +1655,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1672,19 +1678,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1695,19 +1701,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1718,10 +1724,10 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
@@ -1730,7 +1736,7 @@
         <v>93</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1741,7 +1747,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>105</v>
@@ -1750,7 +1756,7 @@
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>106</v>
@@ -1764,7 +1770,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>107</v>
@@ -1773,7 +1779,7 @@
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>108</v>
@@ -1787,571 +1793,571 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F59" s="2" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>112</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D82" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E82" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="F82" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>29</v>
+        <v>114</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2362,24 +2368,70 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E84" s="2" t="s">
+      <c r="C85" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F84" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G84" s="2" t="s">
+      <c r="F85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
         <v>29</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_054.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_054.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="125">
   <si>
     <t>Sezione</t>
   </si>
@@ -356,7 +356,10 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -454,7 +457,7 @@
     <col min="4" max="4" width="22.15625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="39.80859375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2325,7 +2328,7 @@
         <v>111</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>16</v>
@@ -2345,10 +2348,10 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>16</v>
@@ -2357,7 +2360,7 @@
         <v>90</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2368,10 +2371,10 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
@@ -2380,7 +2383,7 @@
         <v>90</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>19</v>
@@ -2391,10 +2394,10 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>16</v>
@@ -2403,7 +2406,7 @@
         <v>27</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2414,10 +2417,10 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>16</v>
@@ -2426,7 +2429,7 @@
         <v>95</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_054.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_054.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="124">
   <si>
     <t>Sezione</t>
   </si>
@@ -357,9 +357,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -2328,7 +2325,7 @@
         <v>111</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>16</v>
@@ -2348,10 +2345,10 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>16</v>
@@ -2360,7 +2357,7 @@
         <v>90</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2371,10 +2368,10 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
@@ -2383,7 +2380,7 @@
         <v>90</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>19</v>
@@ -2394,10 +2391,10 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>16</v>
@@ -2406,7 +2403,7 @@
         <v>27</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2417,10 +2414,10 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>16</v>
@@ -2429,7 +2426,7 @@
         <v>95</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_054.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_054.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="125">
   <si>
     <t>Sezione</t>
   </si>
@@ -357,6 +357,9 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -2325,7 +2328,7 @@
         <v>111</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>16</v>
@@ -2345,10 +2348,10 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>16</v>
@@ -2357,7 +2360,7 @@
         <v>90</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2368,10 +2371,10 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
@@ -2380,7 +2383,7 @@
         <v>90</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>19</v>
@@ -2391,10 +2394,10 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>16</v>
@@ -2403,7 +2406,7 @@
         <v>27</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2414,10 +2417,10 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>16</v>
@@ -2426,7 +2429,7 @@
         <v>95</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_054.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_054.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="133">
   <si>
     <t>Sezione</t>
   </si>
@@ -333,6 +333,30 @@
   </si>
   <si>
     <t>luogoFiliazione</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>Nato morto</t>
@@ -445,7 +469,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H86"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1782,7 +1806,7 @@
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>108</v>
@@ -1805,7 +1829,7 @@
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>110</v>
@@ -1819,605 +1843,605 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F60" s="2" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>114</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>114</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>114</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>114</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>29</v>
+        <v>122</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>29</v>
+        <v>122</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="E85" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>123</v>
@@ -2426,15 +2450,107 @@
         <v>16</v>
       </c>
       <c r="D86" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E86" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G86" s="2" t="s">
+      <c r="E90" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
         <v>29</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_054.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_054.xlsx
@@ -1780,7 +1780,7 @@
         <v>105</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>95</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_054.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_054.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="135">
   <si>
     <t>Sezione</t>
   </si>
@@ -155,6 +155,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -209,13 +215,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -469,7 +475,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H90"/>
+  <dimension ref="A1:H93"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -952,7 +958,7 @@
         <v>47</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>43</v>
@@ -1044,7 +1050,7 @@
         <v>55</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>43</v>
@@ -1159,7 +1165,7 @@
         <v>65</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>43</v>
@@ -1182,7 +1188,7 @@
         <v>67</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>43</v>
@@ -1251,7 +1257,7 @@
         <v>73</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>43</v>
@@ -1366,7 +1372,7 @@
         <v>83</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>43</v>
@@ -1438,10 +1444,10 @@
         <v>16</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1452,19 +1458,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1475,19 +1481,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1498,19 +1504,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1521,16 +1527,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>98</v>
@@ -1544,19 +1550,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1567,19 +1573,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1590,10 +1596,10 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>16</v>
@@ -1602,7 +1608,7 @@
         <v>95</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1613,10 +1619,10 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>16</v>
@@ -1625,7 +1631,7 @@
         <v>95</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1636,19 +1642,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1659,7 +1665,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>103</v>
@@ -1668,10 +1674,10 @@
         <v>16</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1682,19 +1688,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1705,19 +1711,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1728,19 +1734,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1751,19 +1757,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1774,19 +1780,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1797,19 +1803,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1820,19 +1826,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1843,19 +1849,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1866,19 +1872,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1889,10 +1895,10 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
@@ -1901,7 +1907,7 @@
         <v>95</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1912,10 +1918,10 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
@@ -1924,7 +1930,7 @@
         <v>95</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1935,622 +1941,691 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>122</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C65" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E65" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>122</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F86" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G86" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E90" s="2" t="s">
+      <c r="C92" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F90" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G90" s="2" t="s">
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
         <v>29</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_054.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_054.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="137">
   <si>
     <t>Sezione</t>
   </si>
@@ -225,6 +225,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -475,7 +481,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H93"/>
+  <dimension ref="A1:H95"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1234,7 +1240,7 @@
         <v>71</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>43</v>
@@ -1257,7 +1263,7 @@
         <v>73</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>43</v>
@@ -1395,7 +1401,7 @@
         <v>85</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>43</v>
@@ -1467,10 +1473,10 @@
         <v>16</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1481,19 +1487,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1504,19 +1510,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1527,19 +1533,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>97</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1550,16 +1556,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>100</v>
@@ -1573,19 +1579,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1596,19 +1602,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1619,19 +1625,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1642,10 +1648,10 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>16</v>
@@ -1654,7 +1660,7 @@
         <v>97</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1665,7 +1671,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>103</v>
@@ -1674,7 +1680,7 @@
         <v>16</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>104</v>
@@ -1688,19 +1694,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1711,19 +1717,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1734,19 +1740,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1757,19 +1763,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1780,19 +1786,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1803,19 +1809,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1826,19 +1832,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>97</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1849,16 +1855,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>110</v>
@@ -1872,7 +1878,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>111</v>
@@ -1881,7 +1887,7 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>112</v>
@@ -1895,7 +1901,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>113</v>
@@ -1904,7 +1910,7 @@
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>114</v>
@@ -1918,7 +1924,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>115</v>
@@ -1927,7 +1933,7 @@
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>116</v>
@@ -1941,7 +1947,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>117</v>
@@ -1964,7 +1970,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>119</v>
@@ -1973,7 +1979,7 @@
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>120</v>
@@ -1987,617 +1993,617 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F66" s="2" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>124</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2608,24 +2614,70 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E93" s="2" t="s">
+      <c r="C94" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F93" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G93" s="2" t="s">
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>29</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_054.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_054.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="139">
   <si>
     <t>Sezione</t>
   </si>
@@ -225,6 +225,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -481,7 +487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H95"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1424,7 +1430,7 @@
         <v>87</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>43</v>
@@ -1496,10 +1502,10 @@
         <v>16</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1510,19 +1516,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1533,19 +1539,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1556,19 +1562,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1579,16 +1585,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>102</v>
@@ -1602,19 +1608,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1625,19 +1631,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1648,19 +1654,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1671,10 +1677,10 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>16</v>
@@ -1683,7 +1689,7 @@
         <v>99</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1694,7 +1700,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>105</v>
@@ -1703,7 +1709,7 @@
         <v>16</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>106</v>
@@ -1717,19 +1723,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1740,19 +1746,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1763,19 +1769,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1786,19 +1792,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1809,19 +1815,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1832,19 +1838,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1855,19 +1861,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1878,16 +1884,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>112</v>
@@ -1901,7 +1907,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>113</v>
@@ -1910,7 +1916,7 @@
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>114</v>
@@ -1924,7 +1930,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>115</v>
@@ -1933,7 +1939,7 @@
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>116</v>
@@ -1947,7 +1953,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>117</v>
@@ -1956,7 +1962,7 @@
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>118</v>
@@ -1970,7 +1976,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>119</v>
@@ -1993,7 +1999,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>121</v>
@@ -2002,7 +2008,7 @@
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>122</v>
@@ -2016,640 +2022,640 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F67" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>126</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2660,24 +2666,70 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E95" s="2" t="s">
+      <c r="C96" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F95" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G95" s="2" t="s">
+      <c r="F96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>29</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_054.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_054.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="173">
   <si>
     <t>Sezione</t>
   </si>
@@ -56,6 +56,12 @@
     <t>evento.datiDiNascita.tipoAccertamento,=,2</t>
   </si>
   <si>
+    <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
+  </si>
+  <si>
+    <t>evento.datiDiNascita.tipoAccertamento,=,3</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -122,6 +128,96 @@
     <t>minuto</t>
   </si>
   <si>
+    <t>Luogo Redazione</t>
+  </si>
+  <si>
+    <t>Luogo</t>
+  </si>
+  <si>
+    <t>evento.luogoRedazione</t>
+  </si>
+  <si>
+    <t>luogo</t>
+  </si>
+  <si>
+    <t>evento.redattoNellaCasaComunale,!=,false</t>
+  </si>
+  <si>
+    <t>Stato</t>
+  </si>
+  <si>
+    <t>idStato</t>
+  </si>
+  <si>
+    <t>Stato descrizione</t>
+  </si>
+  <si>
+    <t>nomeStato</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>idProvincia</t>
+  </si>
+  <si>
+    <t>Provincia - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvincia</t>
+  </si>
+  <si>
+    <t>Comune</t>
+  </si>
+  <si>
+    <t>idComune</t>
+  </si>
+  <si>
+    <t>Comune - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComune</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
+  </si>
+  <si>
+    <t>Indirizzo</t>
+  </si>
+  <si>
+    <t>indirizzo</t>
+  </si>
+  <si>
+    <t>Numero Civico</t>
+  </si>
+  <si>
+    <t>numeroCivico</t>
+  </si>
+  <si>
+    <t>Data Redazione Nascita</t>
+  </si>
+  <si>
+    <t>evento.datiDiNascita</t>
+  </si>
+  <si>
+    <t>dataRedazione</t>
+  </si>
+  <si>
+    <t>Ora Redazione</t>
+  </si>
+  <si>
+    <t>oraRedazione</t>
+  </si>
+  <si>
+    <t>Minuti Redazione</t>
+  </si>
+  <si>
+    <t>minutiRedazione</t>
+  </si>
+  <si>
     <t>Dati generali</t>
   </si>
   <si>
@@ -209,9 +305,6 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
-    <t>Località estera</t>
-  </si>
-  <si>
     <t>localitaEsteraNascita</t>
   </si>
   <si>
@@ -308,6 +401,15 @@
     <t>titoloDichiarante</t>
   </si>
   <si>
+    <t>Ufficiale dello Stato Civile</t>
+  </si>
+  <si>
+    <t>evento.ufficialeStatoCivile</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
+  </si>
+  <si>
     <t>Soggetto</t>
   </si>
   <si>
@@ -317,9 +419,6 @@
     <t>Assegnazione cognome</t>
   </si>
   <si>
-    <t>evento.datiDiNascita</t>
-  </si>
-  <si>
     <t>sceltaCognome</t>
   </si>
   <si>
@@ -401,9 +500,6 @@
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
   </si>
   <si>
-    <t>Firmatario</t>
-  </si>
-  <si>
     <t>Dettagli evento</t>
   </si>
   <si>
@@ -429,6 +525,12 @@
   </si>
   <si>
     <t>tipoAccertamento</t>
+  </si>
+  <si>
+    <t>Redatto nella casa comunale</t>
+  </si>
+  <si>
+    <t>redattoNellaCasaComunale</t>
   </si>
 </sst>
 </file>
@@ -487,16 +589,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:H138"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="15.75390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="41.8984375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="23.76953125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="49.48828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="22.15625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="24.39453125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
@@ -573,36 +675,36 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -619,13 +721,13 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
@@ -642,10 +744,10 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
@@ -665,10 +767,10 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
@@ -688,10 +790,10 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
@@ -711,10 +813,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
@@ -734,10 +836,10 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
@@ -756,86 +858,86 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="G13" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>33</v>
@@ -844,21 +946,21 @@
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>35</v>
@@ -867,44 +969,44 @@
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>41</v>
@@ -913,21 +1015,21 @@
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>44</v>
@@ -936,21 +1038,21 @@
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>46</v>
@@ -959,12 +1061,12 @@
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>47</v>
@@ -973,7 +1075,7 @@
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>48</v>
@@ -982,21 +1084,21 @@
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>50</v>
@@ -1005,21 +1107,21 @@
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>52</v>
@@ -1028,21 +1130,21 @@
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>54</v>
@@ -1051,21 +1153,21 @@
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>56</v>
@@ -1074,12 +1176,12 @@
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>57</v>
@@ -1088,7 +1190,7 @@
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>58</v>
@@ -1097,12 +1199,12 @@
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>59</v>
@@ -1111,7 +1213,7 @@
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>60</v>
@@ -1120,12 +1222,12 @@
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>61</v>
@@ -1134,1603 +1236,2546 @@
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="E35" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>128</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>128</v>
+        <v>42</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>128</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>128</v>
+        <v>42</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>128</v>
+        <v>42</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>128</v>
+        <v>42</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>128</v>
+        <v>42</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>128</v>
+        <v>42</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>128</v>
+        <v>42</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>128</v>
+        <v>42</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>128</v>
+        <v>42</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>128</v>
+        <v>42</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>128</v>
+        <v>42</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>128</v>
+        <v>42</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>128</v>
+        <v>42</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>128</v>
+        <v>42</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>128</v>
+        <v>42</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F85" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>128</v>
+        <v>42</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>128</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>128</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>83</v>
+        <v>134</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>126</v>
+        <v>62</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>128</v>
+        <v>31</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>126</v>
+        <v>62</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>128</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>128</v>
+        <v>31</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>128</v>
+        <v>31</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>128</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>126</v>
+        <v>62</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>128</v>
+        <v>31</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="E95" s="2" t="s">
-        <v>134</v>
+        <v>86</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>27</v>
+        <v>133</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>137</v>
+        <v>89</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E97" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G97" s="2" t="s">
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D136" s="2" t="s">
         <v>29</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_054.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_054.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="173">
   <si>
     <t>Sezione</t>
   </si>
@@ -589,7 +589,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H138"/>
+  <dimension ref="A1:H137"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2288,7 +2288,7 @@
         <v>129</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
@@ -2297,7 +2297,7 @@
         <v>130</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2311,7 +2311,7 @@
         <v>129</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
@@ -2320,7 +2320,7 @@
         <v>130</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2334,7 +2334,7 @@
         <v>129</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
@@ -2343,7 +2343,7 @@
         <v>130</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2357,7 +2357,7 @@
         <v>129</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
@@ -2366,7 +2366,7 @@
         <v>130</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2380,7 +2380,7 @@
         <v>129</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
@@ -2389,7 +2389,7 @@
         <v>130</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2403,7 +2403,7 @@
         <v>129</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
@@ -2412,7 +2412,7 @@
         <v>130</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2426,7 +2426,7 @@
         <v>129</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
@@ -2435,7 +2435,7 @@
         <v>130</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2449,7 +2449,7 @@
         <v>129</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
@@ -2458,7 +2458,7 @@
         <v>130</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2472,7 +2472,7 @@
         <v>129</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
@@ -2481,7 +2481,7 @@
         <v>130</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2495,7 +2495,7 @@
         <v>129</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
@@ -2504,7 +2504,7 @@
         <v>130</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2518,7 +2518,7 @@
         <v>129</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
@@ -2527,7 +2527,7 @@
         <v>130</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2538,25 +2538,25 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86">
@@ -2564,16 +2564,16 @@
         <v>132</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>133</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2587,16 +2587,16 @@
         <v>132</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>133</v>
+        <v>62</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2610,7 +2610,7 @@
         <v>132</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
@@ -2619,7 +2619,7 @@
         <v>62</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2633,16 +2633,16 @@
         <v>132</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>62</v>
+        <v>133</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2656,16 +2656,16 @@
         <v>132</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>133</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2679,7 +2679,7 @@
         <v>132</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>18</v>
@@ -2688,7 +2688,7 @@
         <v>133</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2702,16 +2702,16 @@
         <v>132</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>133</v>
+        <v>62</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>84</v>
+        <v>139</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2725,7 +2725,7 @@
         <v>132</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>18</v>
@@ -2734,7 +2734,7 @@
         <v>62</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2748,16 +2748,16 @@
         <v>132</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>62</v>
+        <v>133</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>141</v>
+        <v>86</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2771,7 +2771,7 @@
         <v>132</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>85</v>
+        <v>142</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>18</v>
@@ -2780,7 +2780,7 @@
         <v>133</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2794,16 +2794,16 @@
         <v>132</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>142</v>
+        <v>89</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>133</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2817,7 +2817,7 @@
         <v>132</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
@@ -2826,7 +2826,7 @@
         <v>133</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2840,7 +2840,7 @@
         <v>132</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
@@ -2849,7 +2849,7 @@
         <v>133</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2863,7 +2863,7 @@
         <v>132</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
@@ -2872,7 +2872,7 @@
         <v>133</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2886,16 +2886,16 @@
         <v>132</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>133</v>
+        <v>62</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>96</v>
+        <v>145</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2909,16 +2909,16 @@
         <v>132</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>62</v>
+        <v>133</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2932,7 +2932,7 @@
         <v>132</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
@@ -2941,7 +2941,7 @@
         <v>133</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2955,7 +2955,7 @@
         <v>132</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
@@ -2964,7 +2964,7 @@
         <v>133</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2978,7 +2978,7 @@
         <v>132</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -2987,7 +2987,7 @@
         <v>133</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3001,16 +3001,16 @@
         <v>132</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>133</v>
+        <v>62</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3024,7 +3024,7 @@
         <v>132</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
@@ -3033,7 +3033,7 @@
         <v>62</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3044,25 +3044,25 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>156</v>
+        <v>74</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>62</v>
+        <v>159</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>157</v>
+        <v>76</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>31</v>
+        <v>161</v>
       </c>
     </row>
     <row r="108">
@@ -3070,19 +3070,19 @@
         <v>158</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>159</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>161</v>
@@ -3093,16 +3093,16 @@
         <v>158</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>159</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3116,16 +3116,16 @@
         <v>158</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>159</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3139,7 +3139,7 @@
         <v>158</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>18</v>
@@ -3148,7 +3148,7 @@
         <v>159</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3162,7 +3162,7 @@
         <v>158</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>18</v>
@@ -3171,7 +3171,7 @@
         <v>159</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3185,7 +3185,7 @@
         <v>158</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>18</v>
@@ -3194,7 +3194,7 @@
         <v>159</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3208,16 +3208,16 @@
         <v>158</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>159</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3231,7 +3231,7 @@
         <v>158</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
@@ -3240,10 +3240,10 @@
         <v>159</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>161</v>
@@ -3254,7 +3254,7 @@
         <v>158</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
@@ -3263,10 +3263,10 @@
         <v>159</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>161</v>
@@ -3277,7 +3277,7 @@
         <v>158</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
@@ -3286,10 +3286,10 @@
         <v>159</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>161</v>
@@ -3300,7 +3300,7 @@
         <v>158</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
@@ -3309,7 +3309,7 @@
         <v>159</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>160</v>
@@ -3323,19 +3323,19 @@
         <v>158</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>159</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>161</v>
@@ -3346,7 +3346,7 @@
         <v>158</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>18</v>
@@ -3355,7 +3355,7 @@
         <v>159</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3369,19 +3369,19 @@
         <v>158</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>159</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>161</v>
@@ -3392,7 +3392,7 @@
         <v>158</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
@@ -3401,7 +3401,7 @@
         <v>159</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>160</v>
@@ -3415,7 +3415,7 @@
         <v>158</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
@@ -3424,10 +3424,10 @@
         <v>159</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>161</v>
@@ -3438,7 +3438,7 @@
         <v>158</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
@@ -3447,10 +3447,10 @@
         <v>159</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>161</v>
@@ -3461,7 +3461,7 @@
         <v>158</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
@@ -3470,10 +3470,10 @@
         <v>159</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>161</v>
@@ -3484,7 +3484,7 @@
         <v>158</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
@@ -3493,10 +3493,10 @@
         <v>159</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>161</v>
@@ -3507,7 +3507,7 @@
         <v>158</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
@@ -3516,10 +3516,10 @@
         <v>159</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>161</v>
@@ -3530,7 +3530,7 @@
         <v>158</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
@@ -3539,10 +3539,10 @@
         <v>159</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>161</v>
@@ -3553,7 +3553,7 @@
         <v>158</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
@@ -3562,7 +3562,7 @@
         <v>159</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>160</v>
@@ -3576,19 +3576,19 @@
         <v>158</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>159</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>161</v>
@@ -3599,7 +3599,7 @@
         <v>158</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>18</v>
@@ -3608,7 +3608,7 @@
         <v>159</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3622,7 +3622,7 @@
         <v>158</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>18</v>
@@ -3631,7 +3631,7 @@
         <v>159</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3642,25 +3642,25 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>161</v>
+        <v>31</v>
       </c>
     </row>
     <row r="134">
@@ -3668,19 +3668,19 @@
         <v>162</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>31</v>
@@ -3691,19 +3691,19 @@
         <v>162</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>31</v>
@@ -3714,16 +3714,16 @@
         <v>162</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3737,44 +3737,21 @@
         <v>162</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G138" s="2" t="s">
         <v>31</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_054.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_054.xlsx
@@ -65,7 +65,7 @@
     <t>Formula</t>
   </si>
   <si>
-    <t>13</t>
+    <t>13.1</t>
   </si>
   <si>
     <t>SI</t>
@@ -1647,7 +1647,7 @@
         <v>100</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>75</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_054.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_054.xlsx
@@ -3326,7 +3326,7 @@
         <v>98</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>159</v>
@@ -3349,7 +3349,7 @@
         <v>100</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>159</v>
@@ -3358,7 +3358,7 @@
         <v>101</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>161</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_054.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_054.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="177">
   <si>
     <t>Sezione</t>
   </si>
@@ -261,6 +261,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -589,7 +601,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H137"/>
+  <dimension ref="A1:H143"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1440,7 +1452,7 @@
         <v>83</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>75</v>
@@ -1463,7 +1475,7 @@
         <v>85</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>75</v>
@@ -1509,7 +1521,7 @@
         <v>89</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>75</v>
@@ -1532,7 +1544,7 @@
         <v>91</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>75</v>
@@ -1598,7 +1610,7 @@
         <v>72</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
@@ -1607,7 +1619,7 @@
         <v>75</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1621,7 +1633,7 @@
         <v>72</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
@@ -1630,7 +1642,7 @@
         <v>75</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1644,7 +1656,7 @@
         <v>72</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
@@ -1877,7 +1889,7 @@
         <v>120</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>75</v>
@@ -1900,7 +1912,7 @@
         <v>122</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>75</v>
@@ -1949,10 +1961,10 @@
         <v>18</v>
       </c>
       <c r="D59" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1963,65 +1975,65 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2032,19 +2044,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2055,19 +2067,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2078,19 +2090,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2101,19 +2113,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2124,19 +2136,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2147,19 +2159,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2170,19 +2182,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2193,19 +2205,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2216,19 +2228,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2239,19 +2251,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2262,19 +2274,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2285,19 +2297,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2308,19 +2320,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2331,19 +2343,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2354,19 +2366,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2377,19 +2389,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2400,19 +2412,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2423,19 +2435,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2446,19 +2458,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2469,19 +2481,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2492,19 +2504,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2515,19 +2527,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2538,111 +2550,111 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="E87" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>62</v>
+        <v>134</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2653,19 +2665,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2676,19 +2688,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>133</v>
+        <v>62</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>84</v>
+        <v>139</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2699,19 +2711,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>62</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2722,19 +2734,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>62</v>
+        <v>137</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2745,19 +2757,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2768,16 +2780,16 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>88</v>
@@ -2791,19 +2803,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>133</v>
+        <v>62</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>90</v>
+        <v>143</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2814,19 +2826,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>133</v>
+        <v>62</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>92</v>
+        <v>145</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2837,19 +2849,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2860,19 +2872,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>95</v>
+        <v>146</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2883,19 +2895,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>144</v>
+        <v>93</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>62</v>
+        <v>137</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>145</v>
+        <v>94</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2906,19 +2918,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>147</v>
+        <v>96</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2929,19 +2941,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>148</v>
+        <v>97</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>149</v>
+        <v>98</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2952,19 +2964,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2975,19 +2987,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>133</v>
+        <v>62</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2998,19 +3010,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>62</v>
+        <v>137</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3021,19 +3033,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>62</v>
+        <v>137</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3044,600 +3056,600 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>161</v>
+        <v>31</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>161</v>
+        <v>31</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E109" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>161</v>
+        <v>31</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>81</v>
+        <v>160</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>159</v>
+        <v>62</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>82</v>
+        <v>161</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>161</v>
+        <v>31</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="133">
@@ -3645,22 +3657,22 @@
         <v>162</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="E133" s="2" t="s">
-        <v>164</v>
+        <v>119</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>31</v>
+        <v>165</v>
       </c>
     </row>
     <row r="134">
@@ -3668,22 +3680,22 @@
         <v>162</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G134" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="135">
@@ -3691,22 +3703,22 @@
         <v>162</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>29</v>
+        <v>163</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>168</v>
+        <v>123</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>31</v>
+        <v>165</v>
       </c>
     </row>
     <row r="136">
@@ -3714,22 +3726,22 @@
         <v>162</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>169</v>
+        <v>124</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>62</v>
+        <v>163</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>31</v>
+        <v>165</v>
       </c>
     </row>
     <row r="137">
@@ -3737,21 +3749,159 @@
         <v>162</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D137" s="2" t="s">
+      <c r="C141" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D141" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E137" s="2" t="s">
+      <c r="E141" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="F137" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G137" s="2" t="s">
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
         <v>31</v>
       </c>
     </row>
